--- a/marsframework-master/MarsFramework/ExcelData/TestData.xlsx
+++ b/marsframework-master/MarsFramework/ExcelData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -153,9 +153,6 @@
     <t>On-site</t>
   </si>
   <si>
-    <t>Start date</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t>Flyers &amp; Brochures</t>
   </si>
   <si>
-    <t>End date</t>
-  </si>
-  <si>
     <t>1000PM</t>
   </si>
   <si>
@@ -232,6 +226,12 @@
   </si>
   <si>
     <t>ManageRequestsURL</t>
+  </si>
+  <si>
+    <t>Startdate</t>
+  </si>
+  <si>
+    <t>Enddate</t>
   </si>
 </sst>
 </file>
@@ -707,10 +707,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2">
         <v>123123</v>
@@ -820,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -848,7 +848,7 @@
         <v>32</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>33</v>
@@ -860,19 +860,19 @@
         <v>35</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>36</v>
@@ -895,10 +895,10 @@
         <v>41</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>42</v>
@@ -907,25 +907,25 @@
         <v>43</v>
       </c>
       <c r="H2" s="3">
-        <v>30032020</v>
+        <v>30032050</v>
       </c>
       <c r="I2" s="3">
-        <v>30032050</v>
+        <v>30032060</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>38</v>
@@ -933,29 +933,35 @@
     </row>
     <row r="3" spans="1:15">
       <c r="E3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="H3" s="3">
+        <v>30032050</v>
+      </c>
+      <c r="I3" s="3">
+        <v>30032060</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="E4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="E5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -981,15 +987,15 @@
         <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1010,12 +1016,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
